--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2431839.71939317</v>
+        <v>2540980.972953296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9217816.959888672</v>
+        <v>9240263.835370697</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>168.1348165064504</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.7168665789306</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.8534790963691</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>194.7516437108054</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>29.99566384216739</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>115.5652577273999</v>
       </c>
       <c r="U7" t="n">
-        <v>212.6739476626013</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>56.1352561599633</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>60.29824261955831</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.89316352371135</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>86.17414126815135</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.03790159951684</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>260.4394343112825</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.09841665934233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>81.88270281562068</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.5124049156275</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.7304175246775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>56.45752097953178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9114582540257</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.7322552292192</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>132.2740511637359</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>13.94435783112388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>1519.561383463179</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.17188115873</v>
+        <v>1150.598866522767</v>
       </c>
       <c r="D2" t="n">
-        <v>684.9061825519796</v>
+        <v>1150.598866522767</v>
       </c>
       <c r="E2" t="n">
-        <v>299.1179299537353</v>
+        <v>764.8106139245231</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>353.8247091349155</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>341.4128518671941</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1142.292041673267</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.767147908852</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1968.860256443059</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139075</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163263</v>
+        <v>1906.161223527301</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>464.3298303300111</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222188</v>
+        <v>1041.052645433267</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1304.992176928754</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1044.683643607215</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>789.9991554013277</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>500.5819853643671</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.620496369037</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.620496369037</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.620496369037</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W5" t="n">
-        <v>2012.851841098923</v>
+        <v>2351.048756254189</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.386082837843</v>
+        <v>1977.582997993109</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.246750862032</v>
+        <v>1587.443666017298</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488038</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756888</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182509</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057791</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800201</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370149</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180648</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297103</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687204</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284149</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460311</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292608</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.992271614743</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>496.992271614743</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1333.801420596816</v>
       </c>
       <c r="U7" t="n">
-        <v>899.4333155885129</v>
+        <v>1044.683643607215</v>
       </c>
       <c r="V7" t="n">
-        <v>899.4333155885129</v>
+        <v>789.9991554013277</v>
       </c>
       <c r="W7" t="n">
-        <v>899.4333155885129</v>
+        <v>500.5819853643671</v>
       </c>
       <c r="X7" t="n">
-        <v>899.4333155885129</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.6407364449827</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.035030689733</v>
+        <v>962.8419999896025</v>
       </c>
       <c r="C8" t="n">
-        <v>1305.072513749321</v>
+        <v>593.8794830491909</v>
       </c>
       <c r="D8" t="n">
-        <v>1305.072513749321</v>
+        <v>593.8794830491909</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>593.8794830491909</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926624</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926624</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926624</v>
+        <v>2113.046930290616</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665544</v>
+        <v>1739.581172029536</v>
       </c>
       <c r="Y8" t="n">
-        <v>1674.035030689733</v>
+        <v>1349.441840053724</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605187</v>
+        <v>491.5015312480865</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919903</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.9918807365201</v>
+        <v>504.2906949905881</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9918807365201</v>
+        <v>504.2906949905881</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365201</v>
+        <v>504.2906949905881</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>504.2906949905881</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>357.4007474926777</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1446.818126450532</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1223.839645645268</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>1223.839645645268</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V10" t="n">
-        <v>1223.839645645268</v>
+        <v>906.731738964358</v>
       </c>
       <c r="W10" t="n">
-        <v>934.4224756083073</v>
+        <v>906.731738964358</v>
       </c>
       <c r="X10" t="n">
-        <v>706.43292471029</v>
+        <v>906.731738964358</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.6403455667598</v>
+        <v>685.9391598208279</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>189.0729639753278</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935239</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729352</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300424</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926976</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>4435.461999481583</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.19349744548</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3091.514342801865</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.397703389529</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807136</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309225</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024105</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053497</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4266.046595916499</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4011.362107710613</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3721.944937673652</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3493.955386775634</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3273.162807632104</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6551,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6649,19 +6651,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1394.184733704551</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
         <v>1280.315625093766</v>
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2231.588527385791</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>2817.800993781637</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991043</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1087.256396642634</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>866.4638174991043</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>175.8744207939072</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855557</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7393,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7846,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>248.4615042601745</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>142.3850817401784</v>
       </c>
       <c r="L3" t="n">
-        <v>255.5240487471575</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>60.50016306149627</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>191.4694788103614</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>152.486236692752</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>25.74504007796162</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>40.30478226780065</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>204.6402955209703</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.67206947361669</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>169.2521344095054</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>71.6731950980691</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>71.67319509806902</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>119.8635921600921</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>811352.9560537512</v>
+        <v>834165.3992049866</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>811352.9560537512</v>
+        <v>811159.1335091335</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>811352.9560537512</v>
+        <v>811159.1335091335</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26433,7 +26435,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26448,7 +26450,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695104</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-702087.7744874497</v>
+        <v>-552506.4779427295</v>
       </c>
       <c r="C6" t="n">
-        <v>412664.0090884697</v>
+        <v>240995.1677681695</v>
       </c>
       <c r="D6" t="n">
-        <v>412664.0090884697</v>
+        <v>413759.5275580618</v>
       </c>
       <c r="E6" t="n">
-        <v>10643.16277960653</v>
+        <v>17239.73665840176</v>
       </c>
       <c r="F6" t="n">
+        <v>518128.6044041527</v>
+      </c>
+      <c r="G6" t="n">
+        <v>518128.6044041529</v>
+      </c>
+      <c r="H6" t="n">
+        <v>518128.6044041525</v>
+      </c>
+      <c r="I6" t="n">
         <v>518128.604404153</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>348714.5875781048</v>
+      </c>
+      <c r="K6" t="n">
         <v>518128.6044041525</v>
       </c>
-      <c r="H6" t="n">
-        <v>518128.6044041526</v>
-      </c>
-      <c r="I6" t="n">
-        <v>518128.6044041527</v>
-      </c>
-      <c r="J6" t="n">
-        <v>350523.4265941703</v>
-      </c>
-      <c r="K6" t="n">
-        <v>518128.6044041527</v>
-      </c>
       <c r="L6" t="n">
-        <v>518128.6044041526</v>
+        <v>518128.6044041525</v>
       </c>
       <c r="M6" t="n">
-        <v>385521.310675226</v>
+        <v>387244.1474999173</v>
       </c>
       <c r="N6" t="n">
         <v>518128.6044041527</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.604404153</v>
+        <v>518128.6044041528</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041528</v>
+        <v>518128.6044041525</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>238.741229235261</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>21.88057887058062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>22.39178164144988</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745051</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>11.90654126942837</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>319.2453048752456</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>105.1399709860386</v>
       </c>
       <c r="U7" t="n">
-        <v>73.55320645859933</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>325.7951139122985</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>346.5778031221531</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.4032633270182</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4883190935861</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>209.7242506524599</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>414.6448185524877</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,16 +34453,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>526.356675287078</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>265.0346698919754</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850076</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000385</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>427.4314953435367</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560633</v>
+        <v>380.0164378035054</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419607</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2540980.972953296</v>
+        <v>2536824.786645329</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>203.9827163693136</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>286.7168665789306</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>76.93706179187859</v>
       </c>
       <c r="U4" t="n">
-        <v>263.8534790963691</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>307.4106414606951</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>29.99566384216739</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>115.5652577273999</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>60.29824261955831</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>83.65659230095827</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.89316352371135</v>
+        <v>60.86538463674614</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.03790159951684</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>81.88270281562068</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.9114582540257</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.7322552292192</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.561383463179</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.598866522767</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="D2" t="n">
-        <v>1150.598866522767</v>
+        <v>1671.932933623204</v>
       </c>
       <c r="E2" t="n">
-        <v>764.8106139245231</v>
+        <v>1286.144681024959</v>
       </c>
       <c r="F2" t="n">
-        <v>353.8247091349155</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>341.4128518671941</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908852</v>
+        <v>1294.268838483752</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>1929.733672768588</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="X2" t="n">
-        <v>1906.161223527301</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="Y2" t="n">
-        <v>1906.161223527301</v>
+        <v>2236.241780077746</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>464.3298303300111</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433267</v>
+        <v>532.9594726600656</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928754</v>
+        <v>1173.98268227996</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1723.657007090154</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>803.0263077932267</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>634.0901248653198</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>483.9734854529841</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>336.060391870591</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>336.060391870591</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>1031.015858691244</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.683643607215</v>
+        <v>1031.015858691244</v>
       </c>
       <c r="V4" t="n">
-        <v>789.9991554013277</v>
+        <v>1031.015858691244</v>
       </c>
       <c r="W4" t="n">
-        <v>500.5819853643671</v>
+        <v>1031.015858691244</v>
       </c>
       <c r="X4" t="n">
-        <v>272.5924344663498</v>
+        <v>803.0263077932267</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>803.0263077932267</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>1142.616562291048</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>731.6306575014405</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4570,19 +4570,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599813</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.347406599813</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.048756254189</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.582997993109</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.443666017298</v>
+        <v>1528.404814889292</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>828.3940511992548</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1194.69994069158</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.79985532281972</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>51.79985532281972</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.801420596816</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.683643607215</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>789.9991554013277</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>500.5819853643671</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>272.5924344663498</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.79985532281972</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.8419999896025</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="C8" t="n">
-        <v>593.8794830491909</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="D8" t="n">
-        <v>593.8794830491909</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="E8" t="n">
-        <v>593.8794830491909</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477397</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2505.491157756179</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2505.491157756179</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2251.911929698426</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>1920.849042354856</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.046930290616</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.581172029536</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.441840053724</v>
+        <v>1568.080387084741</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>491.5015312480865</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>788.8134803644014</v>
       </c>
       <c r="M9" t="n">
         <v>1155.119369856727</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.2906949905881</v>
+        <v>727.1359052451296</v>
       </c>
       <c r="C10" t="n">
-        <v>504.2906949905881</v>
+        <v>558.1997223172227</v>
       </c>
       <c r="D10" t="n">
-        <v>504.2906949905881</v>
+        <v>408.083082904887</v>
       </c>
       <c r="E10" t="n">
-        <v>504.2906949905881</v>
+        <v>260.1699893224938</v>
       </c>
       <c r="F10" t="n">
-        <v>357.4007474926777</v>
+        <v>113.2800418245835</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4983,31 +4983,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1161.416227170245</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V10" t="n">
-        <v>906.731738964358</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="W10" t="n">
-        <v>906.731738964358</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>906.731738964358</v>
+        <v>1129.576949218899</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.9391598208279</v>
+        <v>908.7843700753693</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732381</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753278</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6366,19 +6366,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2232.71308162133</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1943.637854965528</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.953366759641</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1399.536196722681</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1171.546645824663</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.7540666811332</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3212.252935505192</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,16 +7724,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4615042601745</v>
+        <v>363.9884999678802</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>142.3850817401784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>267.0105599766277</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>105.3588180506128</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>191.4694788103614</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>191.4694788103618</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>152.486236692752</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780065</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>204.6402955209703</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.6731950980691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>71.67319509806902</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26423,22 +26423,22 @@
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26450,13 +26450,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695104</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695117</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26475,7 +26475,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552506.4779427295</v>
+        <v>-552506.4779427297</v>
       </c>
       <c r="C6" t="n">
-        <v>240995.1677681695</v>
+        <v>240995.1677681698</v>
       </c>
       <c r="D6" t="n">
-        <v>413759.5275580618</v>
+        <v>413759.5275580623</v>
       </c>
       <c r="E6" t="n">
-        <v>17239.73665840176</v>
+        <v>16892.35740404494</v>
       </c>
       <c r="F6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="G6" t="n">
-        <v>518128.6044041529</v>
+        <v>517781.2251497956</v>
       </c>
       <c r="H6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497958</v>
       </c>
       <c r="I6" t="n">
-        <v>518128.604404153</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="J6" t="n">
-        <v>348714.5875781048</v>
+        <v>348367.2083237476</v>
       </c>
       <c r="K6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="L6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497956</v>
       </c>
       <c r="M6" t="n">
-        <v>387244.1474999173</v>
+        <v>386896.7682455607</v>
       </c>
       <c r="N6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497958</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.6044041528</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497956</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>161.290175401694</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>21.88057887058062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>145.2299858404377</v>
       </c>
       <c r="U4" t="n">
-        <v>22.39178164144988</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>104.1143819211742</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>319.2453048752456</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27824,19 +27824,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>105.1399709860386</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>346.5778031221531</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.27881647349479</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.4032633270182</v>
+        <v>105.4310422139834</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936921</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34713,7 +34713,7 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>526.356675287078</v>
+        <v>641.8836709947838</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938092</v>
@@ -34722,7 +34722,7 @@
         <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>265.0346698919754</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>555.2265907173683</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>405.6739181681024</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35035,10 +35035,10 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K9" t="n">
-        <v>380.0164378035054</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>491.7845789278513</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>570.4594634530873</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35345,13 +35345,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103587</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2536824.786645329</v>
+        <v>2538585.316948114</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>66.91093445779755</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>76.93706179187859</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>307.4106414606951</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>3.948672600763668</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>100.582751982419</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>181.0919561226081</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,10 +1150,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>83.65659230095827</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>317.8652578516594</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463674614</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>95.25073964950968</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>100.736283162477</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.5859514748438</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>85.08368458989466</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,28 +4330,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>821.3880832278138</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1126.863189463399</v>
       </c>
       <c r="O2" t="n">
-        <v>1929.733672768588</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147459</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4391,43 +4391,43 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.98268227996</v>
+        <v>1049.152557292955</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090154</v>
+        <v>1690.175766912849</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2318.90441474827</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2491.23337570198</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.0263077932267</v>
+        <v>901.5642936328658</v>
       </c>
       <c r="C4" t="n">
-        <v>634.0901248653198</v>
+        <v>732.6281107049589</v>
       </c>
       <c r="D4" t="n">
-        <v>483.9734854529841</v>
+        <v>582.5114712926231</v>
       </c>
       <c r="E4" t="n">
-        <v>336.060391870591</v>
+        <v>434.59837771023</v>
       </c>
       <c r="F4" t="n">
-        <v>336.060391870591</v>
+        <v>287.7084302123196</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>119.3866578054435</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1031.015858691244</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1031.015858691244</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1031.015858691244</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1031.015858691244</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>803.0263077932267</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.0263077932267</v>
+        <v>1083.212758463106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,55 +4543,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.404814889292</v>
+        <v>378.1998845882785</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.404814889292</v>
+        <v>378.1998845882785</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.404814889292</v>
+        <v>378.1998845882785</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.616562291048</v>
+        <v>378.1998845882785</v>
       </c>
       <c r="F5" t="n">
-        <v>731.6306575014405</v>
+        <v>371.254383839075</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>359.612946079611</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>55.78841350540927</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
         <v>2465.81558556073</v>
@@ -4609,10 +4609,10 @@
         <v>1528.404814889292</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.404814889292</v>
+        <v>1154.939056628212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.404814889292</v>
+        <v>764.7997246524003</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
         <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>828.3940511992548</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.69994069158</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1835.723150311474</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O6" t="n">
-        <v>2170.651831027005</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>472.4514170392431</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>303.5152341113362</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>153.3985946990005</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>153.3985946990005</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4761,16 +4761,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W7" t="n">
-        <v>1464.062502353264</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X7" t="n">
-        <v>1236.072951455246</v>
+        <v>874.892461013013</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.280372311716</v>
+        <v>654.0998818694828</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.080387084741</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.080387084741</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.080387084741</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477397</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2505.491157756179</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2505.491157756179</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U8" t="n">
-        <v>2251.911929698426</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V8" t="n">
-        <v>1920.849042354856</v>
+        <v>1682.514979929825</v>
       </c>
       <c r="W8" t="n">
-        <v>1568.080387084741</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.080387084741</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.080387084741</v>
+        <v>1329.746324659711</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258286</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644014</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451296</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172227</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>408.083082904887</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224938</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245835</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
         <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4983,31 +4983,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153877</v>
+        <v>1550.77080182104</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153877</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.576949218899</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753693</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,13 +5132,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>446.7216388920913</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>279.5255396069712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,13 +5843,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,7 +6615,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,43 +6946,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,7 +7733,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>363.9884999678802</v>
+        <v>360.2919261714349</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>267.0105599766277</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>33.81943452253029</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>105.3588180506128</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="L9" t="n">
-        <v>191.4694788103618</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>66.5105379361508</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.70876137138008</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>55.2110282563292</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26316,37 +26316,37 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26355,7 +26355,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
@@ -26441,19 +26441,19 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695117</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26472,7 +26472,7 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
         <v>93481.08936150958</v>
@@ -26524,46 +26524,46 @@
         <v>-552506.4779427297</v>
       </c>
       <c r="C6" t="n">
-        <v>240995.1677681698</v>
+        <v>240995.1677681701</v>
       </c>
       <c r="D6" t="n">
-        <v>413759.5275580623</v>
+        <v>413759.5275580618</v>
       </c>
       <c r="E6" t="n">
-        <v>16892.35740404494</v>
+        <v>17204.99873296607</v>
       </c>
       <c r="F6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="G6" t="n">
-        <v>517781.2251497956</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="H6" t="n">
-        <v>517781.2251497958</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="I6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="J6" t="n">
-        <v>348367.2083237476</v>
+        <v>348679.8496526688</v>
       </c>
       <c r="K6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="L6" t="n">
-        <v>517781.2251497956</v>
+        <v>518093.866478717</v>
       </c>
       <c r="M6" t="n">
-        <v>386896.7682455607</v>
+        <v>387209.4095744818</v>
       </c>
       <c r="N6" t="n">
-        <v>517781.2251497958</v>
+        <v>518093.866478717</v>
       </c>
       <c r="O6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.866478717</v>
       </c>
       <c r="P6" t="n">
-        <v>517781.2251497956</v>
+        <v>518093.8664787167</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>83.29195320612295</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>145.2299858404377</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>104.1143819211742</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>60.88689284691606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.83829604051228</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27833,10 +27833,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>105.4310422139829</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.27881647349479</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>9.887000618475554</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139834</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28067,13 +28067,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>190.975859570196</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34453,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
         <v>163.429305116157</v>
@@ -34713,16 +34713,16 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>641.8836709947838</v>
+        <v>638.1870971983384</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
         <v>122.649588151797</v>
@@ -34789,7 +34789,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>555.2265907173683</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422580011</v>
@@ -34798,7 +34798,7 @@
         <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>99.75696003939998</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6739181681024</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352464</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>425.7606191871907</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171349</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.546958993144</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>491.7845789278513</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530873</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297621</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35345,13 +35345,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
